--- a/ベースマシンUI一覧表.xlsx
+++ b/ベースマシンUI一覧表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="132">
   <si>
     <t>VCO</t>
     <phoneticPr fontId="1"/>
@@ -353,55 +353,191 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ModNum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>D</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>SPI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COMMON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Serial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_BUTTON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC_13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PD_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC_10, PC_12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB_7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB_6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC_7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_10, PB_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB_5, PB_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB_9, PB_8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016.09.04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cable Color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Tact SW</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SPI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>COMMON</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Serial</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>USER_BUTTON</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC_13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PD_2</t>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NRST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tact SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -409,111 +545,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PC_10, PC_12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PB_7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PB_6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC_7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_10, PB_3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PB_5, PB_4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PB_9, PB_8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PB_0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC_0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC_2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC_3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2016.08.15</t>
+    <t>Board</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -555,20 +599,95 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -577,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,6 +704,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -881,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -893,24 +1054,25 @@
     <col min="4" max="4" width="4.625" customWidth="1"/>
     <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -929,8 +1091,15 @@
       <c r="F5" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -944,10 +1113,14 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>90</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="I6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -958,10 +1131,14 @@
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>115</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="I7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -978,10 +1155,14 @@
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="I8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -995,10 +1176,14 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>109</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="I9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1009,10 +1194,14 @@
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>116</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="I10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1026,13 +1215,17 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>114</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1049,10 +1242,14 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>111</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -1066,10 +1263,14 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>110</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -1083,29 +1284,41 @@
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>108</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="12"/>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -1114,46 +1327,57 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>106</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" thickBot="1">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
       <c r="F17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>91</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="4"/>
+      <c r="I17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" thickBot="1">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>92</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="I18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -1162,12 +1386,16 @@
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>93</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="I19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -1176,12 +1404,16 @@
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>94</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="I20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -1190,173 +1422,220 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>95</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="I21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>107</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+      <c r="I22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" thickBot="1">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="7"/>
+      <c r="I23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="I24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="C28" t="s">
-        <v>47</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="I28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="C29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="I29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="C30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="I30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="F31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="I31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>57</v>
+      <c r="G32" s="13"/>
+      <c r="I32" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1"/>
       <c r="C36" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1367,89 +1646,80 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1"/>
+      <c r="C38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
         <v>74</v>
       </c>
-      <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
         <v>58</v>
-      </c>
-      <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>59</v>
       </c>
       <c r="D39" t="s">
         <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" t="s">
-        <v>106</v>
+        <v>66</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="B40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
         <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>61</v>
-      </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
         <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
         <v>64</v>
@@ -1458,18 +1728,18 @@
         <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>64</v>
@@ -1478,75 +1748,95 @@
         <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
         <v>65</v>
       </c>
       <c r="E44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" t="s">
         <v>71</v>
       </c>
-      <c r="F44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
+      <c r="F45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
         <v>84</v>
       </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" t="s">
         <v>86</v>
       </c>
-      <c r="D45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="B46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" t="s">
-        <v>89</v>
-      </c>
       <c r="F46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="B47" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="E47" t="s">
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/ベースマシンUI一覧表.xlsx
+++ b/ベースマシンUI一覧表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="140">
   <si>
     <t>VCO</t>
     <phoneticPr fontId="1"/>
@@ -171,10 +171,6 @@
   </si>
   <si>
     <t>A4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D2, D3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -397,127 +393,171 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>PA_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB_6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC_7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB_5, PB_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB_9, PB_8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cable Color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tact SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NRST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tact SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC_11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Board</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D2, D3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC_9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC_8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC_6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC_5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB_3, PA_10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>PC_10, PC_12</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PA_13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PB_7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PB_6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC_7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_10, PB_3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PB_5, PB_4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PB_9, PB_8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PA_4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PB_0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC_0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC_2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC_3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2016.09.04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cable Color</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RESET</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tact SW</t>
+    <t>LEDA</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -525,39 +565,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NRST</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tact SW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC_11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Board</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POT</t>
+    <t>PA_11</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>UI1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016.09.09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCF</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1042,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1059,17 +1091,17 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1083,7 +1115,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>33</v>
@@ -1092,11 +1124,11 @@
         <v>32</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1113,11 +1145,11 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="8"/>
       <c r="I6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1131,11 +1163,11 @@
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G7" s="6"/>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1155,11 +1187,11 @@
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G8" s="4"/>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1176,11 +1208,11 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G9" s="3"/>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1194,11 +1226,11 @@
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G10" s="8"/>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1215,14 +1247,14 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G11" s="5"/>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1242,11 +1274,11 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G12" s="12"/>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1263,11 +1295,11 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G13" s="14"/>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1284,11 +1316,11 @@
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G14" s="13"/>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1305,15 +1337,15 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="12"/>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1327,15 +1359,15 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="13"/>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1">
@@ -1348,13 +1380,16 @@
       <c r="D17" t="s">
         <v>30</v>
       </c>
+      <c r="E17" t="s">
+        <v>124</v>
+      </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="4"/>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25" thickBot="1">
@@ -1368,11 +1403,11 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="G18" s="16"/>
       <c r="I18" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1386,11 +1421,11 @@
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="G19" s="15"/>
       <c r="I19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1404,11 +1439,11 @@
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="G20" s="13"/>
       <c r="I20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1422,16 +1457,16 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="G21" s="14"/>
       <c r="I21" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25" thickBot="1">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1442,61 +1477,58 @@
       <c r="D22" t="s">
         <v>30</v>
       </c>
-      <c r="E22" t="s">
-        <v>56</v>
-      </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
       <c r="I22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" thickBot="1">
       <c r="B23" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="7"/>
       <c r="I23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G24" s="3"/>
       <c r="I24" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1510,13 +1542,20 @@
         <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1524,55 +1563,55 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" s="8"/>
       <c r="I28" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="C29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="6"/>
       <c r="I29" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="C30" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="12"/>
+        <v>133</v>
+      </c>
+      <c r="G30" s="4"/>
       <c r="I30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="C31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
@@ -1580,14 +1619,14 @@
       <c r="F31" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="14"/>
+      <c r="G31" s="12"/>
       <c r="I31" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="C32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
@@ -1595,248 +1634,314 @@
       <c r="F32" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="13"/>
+      <c r="G32" s="14"/>
       <c r="I32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="I33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1"/>
+      <c r="G36" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C37" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>75</v>
+      </c>
+      <c r="I37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1"/>
+      <c r="C39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="I40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
         <v>58</v>
       </c>
-      <c r="D39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="F41" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
         <v>59</v>
       </c>
-      <c r="D40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
         <v>67</v>
       </c>
-      <c r="F40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="F42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="I42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
         <v>60</v>
       </c>
-      <c r="D41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
         <v>64</v>
       </c>
-      <c r="D42" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" t="s">
-        <v>65</v>
-      </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>96</v>
+      </c>
+      <c r="I43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>62</v>
       </c>
       <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="I45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="I46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
         <v>81</v>
       </c>
-      <c r="C44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="B45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
+      <c r="B47" t="s">
         <v>82</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C47" t="s">
         <v>83</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="I47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" t="s">
         <v>84</v>
       </c>
-      <c r="D46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" t="s">
         <v>86</v>
       </c>
-      <c r="F46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="B47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F48" t="s">
+        <v>90</v>
+      </c>
+      <c r="I48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" t="s">
         <v>87</v>
       </c>
-      <c r="F47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="B48" t="s">
+      <c r="D49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" t="s">
         <v>88</v>
       </c>
-      <c r="D48" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" t="s">
-        <v>89</v>
+      <c r="I49" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
